--- a/raw_data/fad_data/fad_numbers.xlsx
+++ b/raw_data/fad_data/fad_numbers.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollywilson/github/kuni_fads/raw_data/fad_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C353F39-C537-7D40-83D0-36D303F332A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CE389-04E3-FE4C-A52C-A6453F6449E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1"/>
+    <workbookView xWindow="8120" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fads_timeline" sheetId="6" r:id="rId1"/>
     <sheet name="fads_current" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="10" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Molly Wilson</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="204">
   <si>
     <t>Anguilla</t>
   </si>
@@ -670,12 +669,27 @@
   </si>
   <si>
     <t>Valles PC 2019</t>
+  </si>
+  <si>
+    <t>Ponteen PC 2019</t>
+  </si>
+  <si>
+    <t>Merten PC 2019</t>
+  </si>
+  <si>
+    <t>Marot PC 2019</t>
+  </si>
+  <si>
+    <t>Puga PC 2019</t>
+  </si>
+  <si>
+    <t>Cruickshank-Howard PC 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -685,6 +699,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -693,6 +708,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -710,6 +726,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -753,7 +770,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3835,11 +3852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4130,14 +4147,23 @@
       <c r="C11">
         <v>0</v>
       </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
       <c r="H11" s="7">
         <v>2018</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>185</v>
+      <c r="I11" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4327,28 +4353,31 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>20</v>
       </c>
       <c r="F19">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="G19">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="H19">
         <v>2019</v>
       </c>
-      <c r="I19" t="s">
-        <v>173</v>
+      <c r="I19" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="J19" t="s">
         <v>140</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4359,16 +4388,25 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>27</v>
       </c>
       <c r="H20" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>2019</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4379,26 +4417,27 @@
         <v>34</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
+      </c>
+      <c r="F21">
+        <v>158</v>
       </c>
       <c r="H21">
         <v>2019</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -4509,19 +4548,28 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>839</v>
+        <v>650</v>
       </c>
       <c r="H26">
         <v>2013</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>185</v>
+      <c r="I26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11">

--- a/raw_data/fad_data/fad_numbers.xlsx
+++ b/raw_data/fad_data/fad_numbers.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollywilson/github/kuni_fads/raw_data/fad_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretwilson/github/kuni_fads/raw_data/fad_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CE389-04E3-FE4C-A52C-A6453F6449E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="fads_timeline" sheetId="6" r:id="rId1"/>
     <sheet name="fads_current" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" iterateCount="10" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -29,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Molly Wilson</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="204">
   <si>
     <t>Anguilla</t>
   </si>
@@ -602,9 +607,6 @@
     <t>vessels_tot</t>
   </si>
   <si>
-    <t>Bealey PC 2019</t>
-  </si>
-  <si>
     <t>check numbers</t>
   </si>
   <si>
@@ -684,13 +686,16 @@
   </si>
   <si>
     <t>Cruickshank-Howard PC 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -728,6 +733,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -752,9 +769,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -768,9 +787,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1149,23 +1170,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="11" max="11" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>57</v>
@@ -1198,7 +1219,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1284,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1317,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1350,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1362,7 +1383,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1388,16 +1409,16 @@
         <v>93</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1460,7 +1481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1525,7 +1546,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1554,7 +1575,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1586,7 +1607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1616,7 +1637,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1645,342 +1666,384 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>2017</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2019</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>2001</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>2006</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>2019</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>1968</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>1993</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>2002</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>1987</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>1990</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>2001</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2013</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
         <v>2018</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>2019</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20">
-        <v>2018</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="D29">
+        <v>2500</v>
+      </c>
+      <c r="F29">
+        <v>2500</v>
+      </c>
+      <c r="G29" t="s">
         <v>69</v>
       </c>
-      <c r="I20" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>2019</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>12</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>2001</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>2006</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25">
-        <v>1968</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26">
-        <v>1993</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>2002</v>
-      </c>
-      <c r="D27">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>1987</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="I29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>1990</v>
@@ -1995,112 +2058,103 @@
         <v>62</v>
       </c>
       <c r="H30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>1992</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>1998</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>2012</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" t="s">
         <v>145</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31">
-        <v>2001</v>
-      </c>
-      <c r="D31">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32">
-        <v>2013</v>
-      </c>
-      <c r="D32">
-        <v>29</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" t="s">
-        <v>159</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <v>2018</v>
-      </c>
-      <c r="D33">
-        <v>2500</v>
-      </c>
-      <c r="F33">
-        <v>2500</v>
-      </c>
-      <c r="G33" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2108,28 +2162,34 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
       </c>
       <c r="G34" t="s">
         <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="J34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="K34" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2137,36 +2197,40 @@
         <v>28</v>
       </c>
       <c r="C35">
-        <v>1992</v>
+        <v>2019</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
       </c>
       <c r="G35" t="s">
         <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>140</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2178,113 +2242,109 @@
         <v>62</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="J36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="s">
         <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="K37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <v>2018</v>
+        <v>1992</v>
       </c>
       <c r="D38">
-        <v>11</v>
-      </c>
-      <c r="E38">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
         <v>63</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="K38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="K39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2292,28 +2352,28 @@
         <v>29</v>
       </c>
       <c r="C40">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
         <v>62</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I40" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2321,31 +2381,31 @@
         <v>29</v>
       </c>
       <c r="C41">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="J41" t="s">
         <v>63</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2353,31 +2413,25 @@
         <v>29</v>
       </c>
       <c r="C42">
-        <v>1992</v>
-      </c>
-      <c r="D42">
-        <v>30</v>
+        <v>2012</v>
       </c>
       <c r="F42">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G42" t="s">
         <v>69</v>
       </c>
-      <c r="H42" t="s">
-        <v>114</v>
-      </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="K42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2385,219 +2439,219 @@
         <v>29</v>
       </c>
       <c r="C43">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="D43">
-        <v>58</v>
+        <v>608</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>48</v>
+        <v>600</v>
       </c>
       <c r="G43" t="s">
         <v>69</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="J43" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="K43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="D44">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E44">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" t="s">
-        <v>121</v>
-      </c>
-      <c r="I44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="D45">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F45">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="J45" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="K45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46">
-        <v>2012</v>
-      </c>
-      <c r="F46">
-        <v>500</v>
-      </c>
-      <c r="G46" t="s">
-        <v>69</v>
-      </c>
-      <c r="I46" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" t="s">
-        <v>124</v>
-      </c>
-      <c r="K46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>2019</v>
+        <v>1983</v>
       </c>
       <c r="D47">
-        <v>608</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="H47" t="s">
+        <v>67</v>
       </c>
       <c r="I47" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s">
-        <v>140</v>
-      </c>
-      <c r="K47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C48">
-        <v>2014</v>
+        <v>1985</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
         <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="I48" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="J48" t="s">
-        <v>124</v>
-      </c>
-      <c r="K48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C49">
-        <v>2018</v>
+        <v>1989</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>14</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
         <v>62</v>
       </c>
+      <c r="H49" t="s">
+        <v>67</v>
+      </c>
       <c r="I49" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
-      </c>
-      <c r="K49" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>1993</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I50" t="s">
+        <v>108</v>
+      </c>
+      <c r="J50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2605,19 +2659,13 @@
         <v>32</v>
       </c>
       <c r="C51">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="G51" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="I51" t="s">
         <v>108</v>
@@ -2626,7 +2674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2634,19 +2682,19 @@
         <v>32</v>
       </c>
       <c r="C52">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
         <v>62</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I52" t="s">
         <v>108</v>
@@ -2654,8 +2702,11 @@
       <c r="J52" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="K52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2663,13 +2714,13 @@
         <v>32</v>
       </c>
       <c r="C53">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
         <v>62</v>
@@ -2684,7 +2735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2692,19 +2743,19 @@
         <v>32</v>
       </c>
       <c r="C54">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
         <v>62</v>
       </c>
       <c r="H54" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="I54" t="s">
         <v>108</v>
@@ -2712,8 +2763,11 @@
       <c r="J54" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="K54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2721,13 +2775,13 @@
         <v>32</v>
       </c>
       <c r="C55">
-        <v>1994</v>
-      </c>
-      <c r="D55">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s">
-        <v>109</v>
+        <v>2001</v>
+      </c>
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" t="s">
+        <v>84</v>
       </c>
       <c r="I55" t="s">
         <v>108</v>
@@ -2735,8 +2789,11 @@
       <c r="J55" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="K55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2744,31 +2801,22 @@
         <v>32</v>
       </c>
       <c r="C56">
-        <v>1995</v>
+        <v>2011</v>
       </c>
       <c r="D56">
-        <v>22</v>
-      </c>
-      <c r="E56">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="I56" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="J56" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="K56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2776,28 +2824,22 @@
         <v>32</v>
       </c>
       <c r="C57">
-        <v>1996</v>
+        <v>2013</v>
       </c>
       <c r="D57">
-        <v>44</v>
-      </c>
-      <c r="E57">
-        <v>44</v>
-      </c>
-      <c r="G57" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="J57" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="K57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2805,154 +2847,165 @@
         <v>32</v>
       </c>
       <c r="C58">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
       <c r="G58" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I58" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="J58" t="s">
-        <v>63</v>
-      </c>
-      <c r="K58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59">
-        <v>2001</v>
-      </c>
-      <c r="E59" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" t="s">
-        <v>84</v>
-      </c>
-      <c r="I59" t="s">
-        <v>108</v>
-      </c>
-      <c r="J59" t="s">
-        <v>63</v>
-      </c>
-      <c r="K59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>33</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C60">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="J60" t="s">
-        <v>134</v>
-      </c>
-      <c r="K60" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C61">
-        <v>2013</v>
+        <v>1982</v>
       </c>
       <c r="D61">
-        <v>16</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
-      </c>
-      <c r="J61" t="s">
-        <v>63</v>
-      </c>
-      <c r="K61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C62">
-        <v>2019</v>
+        <v>1986</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>69</v>
-      </c>
-      <c r="I62" t="s">
-        <v>173</v>
-      </c>
-      <c r="J62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>6</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="H63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="C63">
+        <v>2018</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2960,147 +3013,142 @@
         <v>34</v>
       </c>
       <c r="C64">
-        <v>1982</v>
+        <v>2019</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65">
+        <v>2018</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65">
-        <v>1986</v>
-      </c>
-      <c r="D65">
-        <v>6</v>
-      </c>
-      <c r="E65">
-        <v>6</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" t="s">
-        <v>14</v>
+      <c r="I65" t="s">
+        <v>137</v>
+      </c>
+      <c r="J65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C66">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
-        <v>14</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C67">
         <v>2019</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68">
-        <v>2019</v>
-      </c>
-      <c r="D68">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1984</v>
+      </c>
+      <c r="D68" s="1">
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>100</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
@@ -3108,28 +3156,32 @@
         <v>35</v>
       </c>
       <c r="C69" s="1">
-        <v>1984</v>
-      </c>
-      <c r="D69" s="1">
-        <v>20</v>
+        <v>2002</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E69">
-        <v>20</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="K69" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>52</v>
       </c>
@@ -3137,7 +3189,7 @@
         <v>35</v>
       </c>
       <c r="C70" s="1">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>84</v>
@@ -3153,84 +3205,83 @@
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1" t="s">
+      <c r="K70" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>84</v>
+      <c r="C71" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D71" s="3">
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>69</v>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K71" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D72" s="3">
-        <v>19</v>
+      <c r="K71" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1993</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
       </c>
       <c r="E72">
-        <v>8</v>
-      </c>
-      <c r="F72">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G72" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>145</v>
+      <c r="H72" t="s">
+        <v>93</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="K72" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -3238,7 +3289,7 @@
         <v>36</v>
       </c>
       <c r="C73" s="1">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -3250,7 +3301,7 @@
         <v>62</v>
       </c>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>95</v>
@@ -3258,11 +3309,11 @@
       <c r="J73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -3270,13 +3321,13 @@
         <v>36</v>
       </c>
       <c r="C74" s="1">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
         <v>62</v>
@@ -3285,48 +3336,48 @@
         <v>94</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="K74" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>16</v>
       </c>
       <c r="B75" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="1">
-        <v>2001</v>
+      <c r="C75" s="3">
+        <v>2010</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
         <v>62</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>96</v>
+        <v>154</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="K75" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -3334,7 +3385,7 @@
         <v>36</v>
       </c>
       <c r="C76" s="3">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D76">
         <v>10</v>
@@ -3358,7 +3409,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -3366,90 +3417,90 @@
         <v>36</v>
       </c>
       <c r="C77" s="3">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>10</v>
-      </c>
-      <c r="G77" t="s">
-        <v>62</v>
-      </c>
-      <c r="H77" t="s">
-        <v>154</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="I77" t="s">
+        <v>196</v>
+      </c>
+      <c r="J77" t="s">
+        <v>140</v>
+      </c>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C78" s="3">
         <v>2019</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s">
+        <v>69</v>
       </c>
       <c r="I78" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J78" t="s">
-        <v>140</v>
-      </c>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:11">
+        <v>136</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="3">
-        <v>2019</v>
+        <v>37</v>
+      </c>
+      <c r="C79">
+        <v>1992</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="H79" t="s">
+        <v>85</v>
       </c>
       <c r="I79" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="J79" t="s">
-        <v>136</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="K79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -3457,31 +3508,28 @@
         <v>37</v>
       </c>
       <c r="C80">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" t="s">
         <v>62</v>
       </c>
       <c r="H80" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J80" t="s">
         <v>63</v>
       </c>
-      <c r="K80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -3489,28 +3537,19 @@
         <v>37</v>
       </c>
       <c r="C81">
-        <v>1997</v>
+        <v>2010</v>
       </c>
       <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="J81" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -3518,11 +3557,14 @@
         <v>37</v>
       </c>
       <c r="C82">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
+      <c r="H82" t="s">
+        <v>109</v>
+      </c>
       <c r="I82" t="s">
         <v>145</v>
       </c>
@@ -3530,7 +3572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3538,134 +3580,125 @@
         <v>37</v>
       </c>
       <c r="C83">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84">
+        <v>2017</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85">
+        <v>2018</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86">
+        <v>2019</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
         <v>2</v>
       </c>
-      <c r="H83" t="s">
-        <v>109</v>
-      </c>
-      <c r="I83" t="s">
-        <v>145</v>
-      </c>
-      <c r="J83" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" t="s">
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>165</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>48</v>
       </c>
-      <c r="C84">
+      <c r="C87">
         <v>2014</v>
       </c>
-      <c r="D84">
+      <c r="D87">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85">
-        <v>1999</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <v>3</v>
-      </c>
-      <c r="G85" t="s">
-        <v>62</v>
-      </c>
-      <c r="H85" t="s">
-        <v>103</v>
-      </c>
-      <c r="I85" t="s">
-        <v>102</v>
-      </c>
-      <c r="J85" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86">
-        <v>2001</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>102</v>
-      </c>
-      <c r="J86" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B87" t="s">
-        <v>38</v>
-      </c>
-      <c r="C87">
-        <v>2002</v>
-      </c>
-      <c r="D87">
-        <v>10</v>
-      </c>
-      <c r="E87">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-      <c r="I87" t="s">
-        <v>104</v>
-      </c>
-      <c r="J87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B88" t="s">
         <v>38</v>
       </c>
       <c r="C88">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="D88">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
         <v>62</v>
@@ -3674,151 +3707,145 @@
         <v>103</v>
       </c>
       <c r="I88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J88" t="s">
         <v>63</v>
       </c>
-      <c r="K88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B89" t="s">
         <v>38</v>
       </c>
       <c r="C89">
+        <v>2001</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>102</v>
+      </c>
+      <c r="J89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90">
+        <v>2002</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" t="s">
+        <v>103</v>
+      </c>
+      <c r="I90" t="s">
+        <v>104</v>
+      </c>
+      <c r="J90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91">
+        <v>2003</v>
+      </c>
+      <c r="D91">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>62</v>
+      </c>
+      <c r="H91" t="s">
+        <v>103</v>
+      </c>
+      <c r="I91" t="s">
+        <v>104</v>
+      </c>
+      <c r="J91" t="s">
+        <v>63</v>
+      </c>
+      <c r="K91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92">
         <v>2019</v>
       </c>
-      <c r="D89">
+      <c r="D92">
         <v>100</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
         <v>100</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G92" t="s">
         <v>69</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I92" t="s">
         <v>143</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J92" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>18</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>166</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92">
-        <v>1981</v>
-      </c>
-      <c r="D92" s="1">
-        <v>50</v>
-      </c>
-      <c r="E92" s="1">
-        <v>50</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
-        <v>167</v>
-      </c>
-      <c r="B93" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93">
-        <v>1983</v>
-      </c>
-      <c r="D93" s="1">
-        <v>60</v>
-      </c>
-      <c r="E93" s="1">
-        <v>60</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" t="s">
-        <v>167</v>
-      </c>
-      <c r="B94" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94">
-        <v>2018</v>
-      </c>
-      <c r="D94" s="1">
-        <v>4</v>
-      </c>
-      <c r="E94" s="1">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -3826,25 +3853,118 @@
         <v>40</v>
       </c>
       <c r="C95">
+        <v>1981</v>
+      </c>
+      <c r="D95" s="1">
+        <v>50</v>
+      </c>
+      <c r="E95" s="1">
+        <v>50</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96">
+        <v>1983</v>
+      </c>
+      <c r="D96" s="1">
+        <v>60</v>
+      </c>
+      <c r="E96" s="1">
+        <v>60</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97">
+        <v>2018</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1">
+        <v>4</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98">
         <v>2019</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D98" s="3">
         <v>4</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E98" s="3">
         <v>4</v>
       </c>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>182</v>
-      </c>
-      <c r="J95" s="3" t="s">
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>181</v>
+      </c>
+      <c r="J98" s="3" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K98">
+    <sortCondition ref="A2:A98"/>
+  </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3852,18 +3972,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="I24:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>57</v>
@@ -3893,7 +4013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3911,13 +4031,13 @@
         <v>2019</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -3943,13 +4063,13 @@
         <v>2019</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3978,7 +4098,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -3994,7 +4114,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,13 +4128,13 @@
         <v>2018</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" t="s">
         <v>183</v>
       </c>
-      <c r="J6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -4043,10 +4163,10 @@
         <v>140</v>
       </c>
       <c r="K7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -4078,7 +4198,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -4110,10 +4230,10 @@
         <v>140</v>
       </c>
       <c r="K9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -4131,13 +4251,13 @@
         <v>2018</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -4160,13 +4280,13 @@
         <v>2018</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -4186,13 +4306,13 @@
         <v>2019</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -4209,13 +4329,13 @@
         <v>2013</v>
       </c>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -4232,13 +4352,13 @@
         <v>2018</v>
       </c>
       <c r="I14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4270,7 +4390,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -4302,7 +4422,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -4319,13 +4439,13 @@
         <v>2018</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4339,13 +4459,13 @@
         <v>2018</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4371,16 +4491,16 @@
         <v>2019</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
         <v>140</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -4403,13 +4523,13 @@
         <v>2019</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4432,14 +4552,14 @@
         <v>2019</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -4471,7 +4591,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -4494,13 +4614,13 @@
         <v>2013</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -4526,13 +4646,13 @@
         <v>2019</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -4540,7 +4660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -4563,16 +4683,16 @@
         <v>650</v>
       </c>
       <c r="H26">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -4580,9 +4700,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
@@ -4612,7 +4732,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -4626,13 +4746,13 @@
         <v>2018</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>166</v>
       </c>
@@ -4640,7 +4760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -4666,7 +4786,7 @@
         <v>2019</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J31" t="s">
         <v>140</v>

--- a/raw_data/fad_data/fad_numbers.xlsx
+++ b/raw_data/fad_data/fad_numbers.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretwilson/github/kuni_fads/raw_data/fad_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F6E53-AD2A-3047-9AA7-AED27E69A9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="11940" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fads_timeline" sheetId="6" r:id="rId1"/>
     <sheet name="fads_current" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" iterate="1" iterateCount="10" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,17 +27,20 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Molly Wilson</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="209">
   <si>
     <t>Anguilla</t>
   </si>
@@ -689,13 +690,28 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Theophile PC 2019</t>
+  </si>
+  <si>
+    <t>Meijer zu Schlochtern PC 2019</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Bart PC 2019; Frame survey</t>
+  </si>
+  <si>
+    <t>238 (2016)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -745,6 +761,12 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -775,7 +797,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -786,12 +808,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,21 +1193,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="11" max="11" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>177</v>
       </c>
@@ -1219,7 +1242,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1307,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1340,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1350,7 +1373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1406,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1418,7 +1441,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1447,7 +1470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1496,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1546,7 +1569,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1598,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1607,7 +1630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1637,7 +1660,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1666,7 +1689,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1738,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1761,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1787,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1796,7 +1819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1849,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1851,7 +1874,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
@@ -1881,7 +1904,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1913,7 +1936,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1945,7 +1968,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +1997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2032,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2090,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2125,7 +2148,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2154,7 +2177,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2189,7 +2212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2222,7 +2245,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2251,7 +2274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2283,7 +2306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2315,7 +2338,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2344,7 +2367,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2373,7 +2396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2405,7 +2428,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2431,7 +2454,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2463,7 +2486,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2495,7 +2518,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2527,7 +2550,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2535,7 +2558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2564,7 +2587,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +2616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2622,7 +2645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2651,7 +2674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2674,7 +2697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2706,7 +2729,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2735,7 +2758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2767,7 +2790,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2793,7 +2816,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2816,7 +2839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2839,7 +2862,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2868,7 +2891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2890,7 +2913,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2916,7 +2939,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2945,7 +2968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2975,7 +2998,7 @@
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3005,7 +3028,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3035,7 +3058,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>51</v>
       </c>
@@ -3064,7 +3087,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>51</v>
       </c>
@@ -3090,7 +3113,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>45</v>
       </c>
@@ -3119,7 +3142,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
         <v>52</v>
       </c>
@@ -3148,7 +3171,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
@@ -3181,7 +3204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
         <v>52</v>
       </c>
@@ -3214,7 +3237,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11">
       <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
@@ -3249,7 +3272,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -3281,7 +3304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -3313,7 +3336,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -3345,7 +3368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -3377,7 +3400,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -3409,7 +3432,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -3436,7 +3459,7 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -3468,7 +3491,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -3500,7 +3523,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -3529,7 +3552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -3549,7 +3572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -3572,7 +3595,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3598,7 +3621,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>50</v>
       </c>
@@ -3621,7 +3644,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>50</v>
       </c>
@@ -3644,7 +3667,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>50</v>
       </c>
@@ -3670,7 +3693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -3684,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11">
       <c r="A88" s="3" t="s">
         <v>189</v>
       </c>
@@ -3713,7 +3736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11">
       <c r="A89" s="3" t="s">
         <v>189</v>
       </c>
@@ -3739,7 +3762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11">
       <c r="A90" s="3" t="s">
         <v>189</v>
       </c>
@@ -3768,7 +3791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11">
       <c r="A91" s="3" t="s">
         <v>189</v>
       </c>
@@ -3800,7 +3823,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11">
       <c r="A92" s="3" t="s">
         <v>189</v>
       </c>
@@ -3829,7 +3852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -3837,7 +3860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -3845,7 +3868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -3874,7 +3897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>167</v>
       </c>
@@ -3903,7 +3926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -3935,7 +3958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>167</v>
       </c>
@@ -3962,7 +3985,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K98">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K98">
     <sortCondition ref="A2:A98"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3972,16 +3995,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="I24:J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>177</v>
       </c>
@@ -4013,31 +4036,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7">
-        <v>25</v>
-      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7">
-        <v>2019</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -4069,7 +4084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4098,7 +4113,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -4114,7 +4129,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4134,7 +4149,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -4166,7 +4181,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -4198,7 +4213,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -4233,7 +4248,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -4243,21 +4258,29 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H10" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>2019</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -4277,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>201</v>
@@ -4286,7 +4309,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -4294,7 +4317,7 @@
         <v>44</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -4302,17 +4325,20 @@
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="H12">
         <v>2019</v>
       </c>
-      <c r="I12" t="s">
-        <v>187</v>
+      <c r="I12" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="J12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -4322,11 +4348,20 @@
       <c r="C13">
         <v>40</v>
       </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>275</v>
+      </c>
       <c r="G13">
-        <v>434</v>
+        <v>325</v>
       </c>
       <c r="H13">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="I13" t="s">
         <v>195</v>
@@ -4335,7 +4370,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -4358,7 +4393,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4390,7 +4425,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -4416,13 +4451,13 @@
         <v>2019</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="J16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -4432,6 +4467,12 @@
       <c r="C17">
         <v>18</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G17">
         <v>10700</v>
       </c>
@@ -4445,7 +4486,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4465,7 +4506,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4500,7 +4541,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -4529,7 +4570,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4559,7 +4600,7 @@
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -4591,7 +4632,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -4620,7 +4661,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -4652,7 +4693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -4660,7 +4701,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -4692,15 +4733,39 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>165</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>2019</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
         <v>189</v>
       </c>
@@ -4732,7 +4797,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -4752,7 +4817,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>166</v>
       </c>
@@ -4760,7 +4825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>167</v>
       </c>

--- a/raw_data/fad_data/fad_numbers.xlsx
+++ b/raw_data/fad_data/fad_numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretwilson/github/kuni_fads/raw_data/fad_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F6E53-AD2A-3047-9AA7-AED27E69A9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2C9EDE-09F5-224D-A3FD-8195DADE1FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fads_timeline" sheetId="6" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="217">
   <si>
     <t>Anguilla</t>
   </si>
@@ -365,9 +365,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>George 2007 (WECAFC)</t>
-  </si>
-  <si>
     <t>James 2002 (WECAFC)</t>
   </si>
   <si>
@@ -425,15 +422,9 @@
     <t>SDAT (Ser-development and technical aid to fishing)</t>
   </si>
   <si>
-    <t>following loss of 1998 FAD, two more "developments"</t>
-  </si>
-  <si>
     <t>30-35 identified in fisher surveys, likely more -fishers starting to set private FADs</t>
   </si>
   <si>
-    <t>non-exhaustive sample identified/marked 48 FADs</t>
-  </si>
-  <si>
     <t>Department of Development and Technical Assistance</t>
   </si>
   <si>
@@ -560,9 +551,6 @@
     <t>IFREMER/JICA/national govt.</t>
   </si>
   <si>
-    <t>fishers began setting private FADs in 1990s</t>
-  </si>
-  <si>
     <t>no numbers, but some private FADs</t>
   </si>
   <si>
@@ -638,9 +626,6 @@
     <t>Gentner et al. 2019</t>
   </si>
   <si>
-    <t>LaPlace PC 2019</t>
-  </si>
-  <si>
     <t>Psihoyos PC 2019</t>
   </si>
   <si>
@@ -650,9 +635,6 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
-    <t>unclear distinction between dutch/french</t>
-  </si>
-  <si>
     <t>"pending" project in the 1980s, not sure if was ever deployed?</t>
   </si>
   <si>
@@ -665,9 +647,6 @@
     <t>vessel numbers to be confirmed</t>
   </si>
   <si>
-    <t>CRFM 2013: FAO</t>
-  </si>
-  <si>
     <t>Polius PC 2019; FAO</t>
   </si>
   <si>
@@ -705,6 +684,51 @@
   </si>
   <si>
     <t>238 (2016)</t>
+  </si>
+  <si>
+    <t>no number - fishers began setting private FADs in 1990s</t>
+  </si>
+  <si>
+    <t>first 12 deployed among Anguilla, Bonaire, Curacao, Barbados, assuming this means none exist in other islands</t>
+  </si>
+  <si>
+    <t>anchored fishing boats in place of lost FADs</t>
+  </si>
+  <si>
+    <t>early 1990s</t>
+  </si>
+  <si>
+    <t>first deployed in early 1990s</t>
+  </si>
+  <si>
+    <t>First started in 1982</t>
+  </si>
+  <si>
+    <t>George 2007 (WECAFC); Reynal et al. 1999, James 2002 (WECAFC)</t>
+  </si>
+  <si>
+    <t>JICA, French</t>
+  </si>
+  <si>
+    <t>First attempted in early 1990s...</t>
+  </si>
+  <si>
+    <t>No numbers, but multiple FADs</t>
+  </si>
+  <si>
+    <t>CRFM/JICA 2013</t>
+  </si>
+  <si>
+    <t>following loss of 1988 FAD, two more "developments"</t>
+  </si>
+  <si>
+    <t>CRFM/JICA 2012</t>
+  </si>
+  <si>
+    <t>non-exhaustive sample identified/marked 48 private FADs</t>
+  </si>
+  <si>
+    <t>national govt; FAO</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1209,7 +1233,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>57</v>
@@ -1282,21 +1306,21 @@
         <v>20</v>
       </c>
       <c r="C3" s="7">
-        <v>1998</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="7" t="s">
         <v>80</v>
       </c>
@@ -1304,7 +1328,7 @@
         <v>63</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1315,29 +1339,29 @@
         <v>20</v>
       </c>
       <c r="C4" s="7">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="D4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="7" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
+      <c r="K4" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1348,29 +1372,29 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2006</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>84</v>
+        <v>2001</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>84</v>
+      <c r="F5" s="7">
+        <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1381,30 +1405,30 @@
         <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
@@ -1414,16 +1438,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="7">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D7" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>62</v>
@@ -1432,42 +1456,46 @@
         <v>93</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>179</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>2002</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="D8" s="7">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" t="s">
-        <v>63</v>
+      <c r="H8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1478,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1489,85 +1517,80 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>163</v>
+      <c r="G9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>2002</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>1968</v>
+        <v>2019</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>1989</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -1576,84 +1599,89 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
-        <v>2006</v>
+      <c r="C13">
+        <v>1968</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>49</v>
+      <c r="A14" t="s">
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>1968</v>
+        <v>1988</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H15" t="s">
-        <v>82</v>
+      <c r="H15" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>63</v>
@@ -1661,42 +1689,42 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2019</v>
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2006</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
         <v>2019</v>
       </c>
       <c r="D17">
@@ -1708,19 +1736,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>5</v>
+      <c r="A18" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>2001</v>
+        <v>1968</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1728,383 +1762,384 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>2001</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>2002</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>2001</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
         <v>67</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I23" t="s">
         <v>81</v>
       </c>
-      <c r="J18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
+      <c r="C24">
         <v>2006</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" t="s">
         <v>87</v>
       </c>
-      <c r="J19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>2019</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>201</v>
-      </c>
-      <c r="J20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21">
-        <v>1968</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
-        <v>1993</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23">
-        <v>2002</v>
-      </c>
-      <c r="D23">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K24" s="1"/>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>1987</v>
+        <v>2019</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>1968</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>1990</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>1993</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>2001</v>
-      </c>
-      <c r="D27">
-        <v>11</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>69</v>
+      <c r="H27" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>6</v>
+      <c r="A28" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="D28">
-        <v>29</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
-      </c>
-      <c r="F28">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
         <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>148</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>2018</v>
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2019</v>
       </c>
       <c r="D29">
-        <v>2500</v>
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>128</v>
+        <v>62</v>
+      </c>
+      <c r="I29" t="s">
+        <v>182</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" t="s">
-        <v>89</v>
-      </c>
-      <c r="J30" t="s">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
         <v>62</v>
@@ -2112,682 +2147,715 @@
       <c r="H31" t="s">
         <v>85</v>
       </c>
-      <c r="I31" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" t="s">
-        <v>63</v>
+      <c r="I31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
         <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" t="s">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" t="s">
-        <v>145</v>
-      </c>
-      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>7</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
         <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>130</v>
+        <v>156</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>2019</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" t="s">
-        <v>170</v>
-      </c>
-      <c r="J35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36">
-        <v>1988</v>
+        <v>2018</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+        <v>2500</v>
+      </c>
+      <c r="F36">
+        <v>2500</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" t="s">
-        <v>120</v>
-      </c>
-      <c r="J36" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" t="s">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="1"/>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
         <v>63</v>
       </c>
-      <c r="K37" t="s">
-        <v>115</v>
+      <c r="K37" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>1992</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
         <v>63</v>
       </c>
-      <c r="K38" t="s">
-        <v>116</v>
+      <c r="K38" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="D39">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="H39" t="s">
+        <v>67</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s">
         <v>63</v>
-      </c>
-      <c r="K39" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="D40">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s">
         <v>63</v>
+      </c>
+      <c r="K40" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="D41">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="H41" t="s">
+        <v>108</v>
       </c>
       <c r="I41" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="J41" t="s">
         <v>63</v>
-      </c>
-      <c r="K41" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>2012</v>
+        <v>2018</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J42" t="s">
-        <v>124</v>
-      </c>
-      <c r="K42" t="s">
-        <v>125</v>
+        <v>63</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>2019</v>
       </c>
       <c r="D43">
-        <v>608</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="H43" t="s">
+        <v>93</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
-      </c>
-      <c r="K43" t="s">
-        <v>171</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44">
-        <v>2014</v>
+        <v>1987</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
-      </c>
-      <c r="K44" t="s">
-        <v>132</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>2018</v>
+        <v>1988</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>14</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
         <v>62</v>
       </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
       <c r="I45" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="J45" t="s">
-        <v>136</v>
-      </c>
-      <c r="K45" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>1990</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s">
         <v>63</v>
+      </c>
+      <c r="K47" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C48">
-        <v>1985</v>
+        <v>1994</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>48</v>
       </c>
       <c r="G48" t="s">
         <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s">
         <v>63</v>
+      </c>
+      <c r="K48" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C49">
-        <v>1989</v>
+        <v>2001</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>200</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I49" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J49" t="s">
         <v>63</v>
+      </c>
+      <c r="K49" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C50">
-        <v>1993</v>
+        <v>2012</v>
       </c>
       <c r="D50">
-        <v>16</v>
-      </c>
-      <c r="E50">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I50" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="J50" t="s">
-        <v>63</v>
+        <v>121</v>
+      </c>
+      <c r="K50" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C51">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="D51">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s">
-        <v>109</v>
+        <v>608</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>600</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
       </c>
       <c r="I51" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="J51" t="s">
-        <v>63</v>
+        <v>137</v>
+      </c>
+      <c r="K51" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C52">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="D52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
         <v>62</v>
       </c>
       <c r="H52" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="I52" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="J52" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="K52" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C53">
-        <v>1996</v>
+        <v>2018</v>
       </c>
       <c r="D53">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
       </c>
       <c r="G53" t="s">
         <v>62</v>
       </c>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
       <c r="I53" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="J53" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="K53" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54">
-        <v>2000</v>
-      </c>
-      <c r="D54">
-        <v>10</v>
-      </c>
-      <c r="E54">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>62</v>
-      </c>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" t="s">
-        <v>108</v>
-      </c>
-      <c r="J54" t="s">
-        <v>63</v>
-      </c>
-      <c r="K54" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2798,22 +2866,28 @@
         <v>32</v>
       </c>
       <c r="C55">
-        <v>2001</v>
-      </c>
-      <c r="E55" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
         <v>84</v>
       </c>
-      <c r="F55" t="s">
-        <v>84</v>
-      </c>
       <c r="I55" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s">
         <v>63</v>
       </c>
       <c r="K55" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2824,19 +2898,25 @@
         <v>32</v>
       </c>
       <c r="C56">
-        <v>2011</v>
+        <v>1983</v>
       </c>
       <c r="D56">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" t="s">
+        <v>67</v>
       </c>
       <c r="I56" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="J56" t="s">
-        <v>134</v>
-      </c>
-      <c r="K56" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2847,19 +2927,25 @@
         <v>32</v>
       </c>
       <c r="C57">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" t="s">
+        <v>112</v>
       </c>
       <c r="I57" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="J57" t="s">
         <v>63</v>
-      </c>
-      <c r="K57" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2870,417 +2956,390 @@
         <v>32</v>
       </c>
       <c r="C58">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>10</v>
-      </c>
-      <c r="F58">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="H58" t="s">
+        <v>67</v>
       </c>
       <c r="I58" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="J58" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>191</v>
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>1993</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" t="s">
+        <v>108</v>
+      </c>
+      <c r="I59" t="s">
+        <v>107</v>
+      </c>
+      <c r="J59" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>108</v>
       </c>
       <c r="I60" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="J60" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C61">
-        <v>1982</v>
+        <v>1995</v>
       </c>
       <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>71</v>
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I61" t="s">
+        <v>107</v>
+      </c>
+      <c r="J61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K61" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E62">
-        <v>6</v>
-      </c>
-      <c r="G62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" t="s">
         <v>62</v>
       </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K62" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="I62" t="s">
+        <v>107</v>
+      </c>
+      <c r="J62" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C63">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>8</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
         <v>62</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K63" s="1"/>
+      <c r="H63" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" t="s">
+        <v>107</v>
+      </c>
+      <c r="J63" t="s">
+        <v>63</v>
+      </c>
+      <c r="K63" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64">
-        <v>2019</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>9</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K64" s="1"/>
+        <v>2001</v>
+      </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s">
+        <v>107</v>
+      </c>
+      <c r="J64" t="s">
+        <v>63</v>
+      </c>
+      <c r="K64" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="1" t="s">
-        <v>51</v>
+      <c r="A65" t="s">
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="D65">
-        <v>7</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>7</v>
-      </c>
-      <c r="G65" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J65" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="K65" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1" t="s">
-        <v>51</v>
+      <c r="A66" t="s">
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C66">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>123</v>
+      </c>
+      <c r="J66" t="s">
+        <v>63</v>
+      </c>
+      <c r="K66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
         <v>12</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>12</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>2019</v>
       </c>
       <c r="D67">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F67">
-        <v>100</v>
-      </c>
-      <c r="G67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
         <v>69</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>140</v>
+      <c r="I67" t="s">
+        <v>169</v>
+      </c>
+      <c r="J67" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1" t="s">
-        <v>52</v>
+      <c r="A68" t="s">
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1984</v>
-      </c>
-      <c r="D68" s="1">
-        <v>20</v>
-      </c>
-      <c r="E68">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="H68" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="1" t="s">
-        <v>52</v>
+      <c r="A69" t="s">
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69">
+        <v>2019</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>191</v>
+      </c>
+      <c r="J69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70">
+        <v>1980</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s">
-        <v>69</v>
-      </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>69</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D71" s="3">
-        <v>19</v>
-      </c>
-      <c r="E71">
-        <v>8</v>
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71">
+        <v>1982</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="F71">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>145</v>
+        <v>2</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K71" s="4" t="s">
-        <v>152</v>
+      <c r="K71" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1993</v>
+        <v>34</v>
+      </c>
+      <c r="C72">
+        <v>1986</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -3288,63 +3347,59 @@
       <c r="E72">
         <v>6</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1996</v>
+        <v>34</v>
+      </c>
+      <c r="C73">
+        <v>2018</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>6</v>
-      </c>
-      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H73" t="s">
-        <v>94</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K73" t="s">
-        <v>98</v>
-      </c>
+      <c r="I73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2001</v>
+        <v>34</v>
+      </c>
+      <c r="C74">
+        <v>2019</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3352,641 +3407,1133 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="G74" t="s">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H74" t="s">
-        <v>94</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="I74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" t="s">
-        <v>16</v>
+      <c r="A75" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="3">
-        <v>2010</v>
+        <v>42</v>
+      </c>
+      <c r="C75">
+        <v>1989</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>10</v>
-      </c>
-      <c r="G75" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="1"/>
       <c r="I75" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>153</v>
+        <v>214</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" t="s">
-        <v>16</v>
+      <c r="A76" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" s="3">
-        <v>2012</v>
+        <v>42</v>
+      </c>
+      <c r="C76">
+        <v>1995</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>153</v>
+        <v>212</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" t="s">
-        <v>16</v>
+      <c r="A77" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="3">
-        <v>2019</v>
+        <v>42</v>
+      </c>
+      <c r="C77">
+        <v>2018</v>
       </c>
       <c r="D77">
         <v>7</v>
       </c>
       <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>7</v>
       </c>
-      <c r="F77">
-        <v>9</v>
+      <c r="G77" t="s">
+        <v>69</v>
       </c>
       <c r="I77" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="J77" t="s">
-        <v>140</v>
-      </c>
-      <c r="K77" s="3"/>
+        <v>133</v>
+      </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" t="s">
-        <v>164</v>
+      <c r="A78" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="3">
+        <v>42</v>
+      </c>
+      <c r="C78">
         <v>2019</v>
       </c>
       <c r="D78">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>12</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79">
+        <v>2019</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>100</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80">
+        <v>1984</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="I80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1985</v>
+      </c>
+      <c r="D81" s="1">
         <v>20</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
+      <c r="E81">
         <v>20</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s">
         <v>69</v>
       </c>
-      <c r="I78" t="s">
-        <v>186</v>
-      </c>
-      <c r="J78" t="s">
-        <v>136</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79">
-        <v>1992</v>
-      </c>
-      <c r="D79">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D83" s="1">
         <v>3</v>
       </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>84</v>
+      </c>
+      <c r="G83" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D84" s="3">
+        <v>19</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
         <v>62</v>
       </c>
-      <c r="H79" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79" t="s">
-        <v>101</v>
-      </c>
-      <c r="J79" t="s">
-        <v>63</v>
-      </c>
-      <c r="K79" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80">
+      <c r="H84" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1995</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="1">
         <v>1997</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="D86">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
         <v>62</v>
       </c>
-      <c r="H80" t="s">
-        <v>100</v>
-      </c>
-      <c r="I80" t="s">
-        <v>99</v>
-      </c>
-      <c r="J80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81">
-        <v>2010</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="I81" t="s">
-        <v>145</v>
-      </c>
-      <c r="J81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82">
-        <v>2012</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="H82" t="s">
-        <v>109</v>
-      </c>
-      <c r="I82" t="s">
-        <v>145</v>
-      </c>
-      <c r="J82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83">
-        <v>2019</v>
-      </c>
-      <c r="D83">
-        <v>8</v>
-      </c>
-      <c r="E83">
-        <v>8</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84">
-        <v>2017</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-      <c r="E84">
-        <v>4</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85">
-        <v>2018</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B86" t="s">
-        <v>42</v>
-      </c>
-      <c r="C86">
-        <v>2019</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>140</v>
+      <c r="H86" t="s">
+        <v>209</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K86" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87">
-        <v>2014</v>
+        <v>36</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2001</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>62</v>
+      </c>
+      <c r="H87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="3" t="s">
-        <v>189</v>
+      <c r="A88" t="s">
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88">
-        <v>1999</v>
+        <v>36</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2010</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G88" t="s">
         <v>62</v>
       </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-      <c r="I88" t="s">
-        <v>102</v>
-      </c>
-      <c r="J88" t="s">
-        <v>63</v>
+        <v>151</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="3" t="s">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" t="s">
+        <v>151</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="I90" t="s">
         <v>189</v>
       </c>
-      <c r="B89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89">
-        <v>2001</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
-        <v>102</v>
-      </c>
-      <c r="J89" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90">
-        <v>2002</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
-      </c>
-      <c r="E90">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>62</v>
-      </c>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-      <c r="I90" t="s">
-        <v>104</v>
-      </c>
       <c r="J90" t="s">
-        <v>63</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="3" t="s">
-        <v>189</v>
+      <c r="A91" t="s">
+        <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91">
-        <v>2003</v>
-      </c>
-      <c r="D91">
-        <v>11</v>
-      </c>
-      <c r="E91">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s">
-        <v>62</v>
-      </c>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-      <c r="I91" t="s">
-        <v>104</v>
-      </c>
-      <c r="J91" t="s">
-        <v>63</v>
-      </c>
-      <c r="K91" t="s">
-        <v>105</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="3" t="s">
-        <v>189</v>
+      <c r="A92" t="s">
+        <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C92">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" t="s">
         <v>100</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>100</v>
-      </c>
-      <c r="G92" t="s">
-        <v>69</v>
-      </c>
-      <c r="I92" t="s">
-        <v>143</v>
-      </c>
       <c r="J92" t="s">
-        <v>140</v>
+        <v>63</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C93">
+        <v>1992</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93" t="s">
+        <v>100</v>
+      </c>
+      <c r="J93" t="s">
+        <v>63</v>
+      </c>
+      <c r="K93" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C94">
+        <v>1997</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" t="s">
+        <v>99</v>
+      </c>
+      <c r="I94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J94" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C95">
-        <v>1981</v>
-      </c>
-      <c r="D95" s="1">
-        <v>50</v>
-      </c>
-      <c r="E95" s="1">
-        <v>50</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J95" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>142</v>
+      </c>
+      <c r="J95" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96">
+        <v>2012</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>108</v>
+      </c>
+      <c r="I96" t="s">
+        <v>142</v>
+      </c>
+      <c r="J96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97">
+        <v>2019</v>
+      </c>
+      <c r="D97">
+        <v>8</v>
+      </c>
+      <c r="E97">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98">
+        <v>2017</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99">
+        <v>2018</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100">
+        <v>2019</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101">
+        <v>2019</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>69</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102">
+        <v>1998</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" t="s">
+        <v>101</v>
+      </c>
+      <c r="J102" t="s">
+        <v>63</v>
+      </c>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103">
+        <v>1999</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>62</v>
+      </c>
+      <c r="H103" t="s">
+        <v>102</v>
+      </c>
+      <c r="I103" t="s">
+        <v>101</v>
+      </c>
+      <c r="J103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104">
+        <v>2001</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>101</v>
+      </c>
+      <c r="J104" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105">
+        <v>2002</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>62</v>
+      </c>
+      <c r="H105" t="s">
+        <v>102</v>
+      </c>
+      <c r="I105" t="s">
+        <v>103</v>
+      </c>
+      <c r="J105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106">
+        <v>2003</v>
+      </c>
+      <c r="D106">
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>62</v>
+      </c>
+      <c r="H106" t="s">
+        <v>102</v>
+      </c>
+      <c r="I106" t="s">
+        <v>103</v>
+      </c>
+      <c r="J106" t="s">
+        <v>63</v>
+      </c>
+      <c r="K106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107">
+        <v>2019</v>
+      </c>
+      <c r="D107">
+        <v>100</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>100</v>
+      </c>
+      <c r="G107" t="s">
+        <v>69</v>
+      </c>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" t="s">
         <v>40</v>
       </c>
-      <c r="C96">
+      <c r="C110">
+        <v>1979</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111">
+        <v>1981</v>
+      </c>
+      <c r="D111" s="1">
+        <v>50</v>
+      </c>
+      <c r="E111" s="1">
+        <v>50</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112">
         <v>1983</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D112" s="1">
         <v>60</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E112" s="1">
         <v>60</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="J112" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" t="s">
         <v>40</v>
       </c>
-      <c r="C97">
+      <c r="C113">
         <v>2018</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D113" s="1">
         <v>4</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E113" s="1">
         <v>4</v>
       </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1" t="s">
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="J113" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" t="s">
         <v>40</v>
       </c>
-      <c r="C98">
+      <c r="C114">
         <v>2019</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D114" s="3">
         <v>4</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E114" s="3">
         <v>4</v>
       </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
-        <v>181</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>140</v>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>177</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K98">
-    <sortCondition ref="A2:A98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K114">
+    <sortCondition ref="A2:A114"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -3998,15 +4545,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>57</v>
@@ -4021,10 +4568,10 @@
         <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>54</v>
@@ -4078,10 +4625,10 @@
         <v>2019</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4107,10 +4654,10 @@
         <v>2019</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4143,10 +4690,10 @@
         <v>2018</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4172,13 +4719,13 @@
         <v>2019</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4207,10 +4754,10 @@
         <v>2019</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4239,13 +4786,13 @@
         <v>2019</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4274,10 +4821,10 @@
         <v>2019</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4303,10 +4850,10 @@
         <v>2019</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4326,16 +4873,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H12">
         <v>2019</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4364,10 +4911,10 @@
         <v>2019</v>
       </c>
       <c r="I13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4387,10 +4934,10 @@
         <v>2018</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4419,10 +4966,10 @@
         <v>2019</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4451,10 +4998,10 @@
         <v>2019</v>
       </c>
       <c r="I16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4480,10 +5027,10 @@
         <v>2018</v>
       </c>
       <c r="I17" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4500,10 +5047,10 @@
         <v>2018</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4532,13 +5079,13 @@
         <v>2019</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4564,10 +5111,10 @@
         <v>2019</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4593,10 +5140,10 @@
         <v>2019</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -4626,10 +5173,10 @@
         <v>2019</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4655,10 +5202,10 @@
         <v>2013</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4687,15 +5234,15 @@
         <v>2019</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -4727,15 +5274,15 @@
         <v>2019</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
@@ -4759,15 +5306,15 @@
         <v>2019</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
@@ -4791,10 +5338,10 @@
         <v>2019</v>
       </c>
       <c r="I28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4811,15 +5358,15 @@
         <v>2018</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -4827,7 +5374,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -4851,10 +5398,10 @@
         <v>2019</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/fad_data/fad_numbers.xlsx
+++ b/raw_data/fad_data/fad_numbers.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretwilson/github/kuni_fads/raw_data/fad_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2C9EDE-09F5-224D-A3FD-8195DADE1FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC90017-6304-E847-A978-B9331A2E60B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="460" windowWidth="17760" windowHeight="12760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fads_timeline" sheetId="6" r:id="rId1"/>
     <sheet name="fads_current" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="222">
   <si>
     <t>Anguilla</t>
   </si>
@@ -677,15 +679,9 @@
     <t>Meijer zu Schlochtern PC 2019</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>Bart PC 2019; Frame survey</t>
   </si>
   <si>
-    <t>238 (2016)</t>
-  </si>
-  <si>
     <t>no number - fishers began setting private FADs in 1990s</t>
   </si>
   <si>
@@ -729,6 +725,27 @@
   </si>
   <si>
     <t>national govt; FAO</t>
+  </si>
+  <si>
+    <t>*vessel number from 2016 survey</t>
+  </si>
+  <si>
+    <t>prop_fad_vessels</t>
+  </si>
+  <si>
+    <t>Johnson PC 2020</t>
+  </si>
+  <si>
+    <t>Deleveaux PC 2020, FAO 2016</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Pitt PC 2019</t>
+  </si>
+  <si>
+    <t>BMU</t>
   </si>
 </sst>
 </file>
@@ -778,12 +795,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -821,7 +840,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -833,6 +852,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1220,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
@@ -1328,7 +1348,7 @@
         <v>63</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1361,7 +1381,7 @@
         <v>63</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2339,7 +2359,7 @@
         <v>63</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2365,7 +2385,7 @@
         <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I38" t="s">
         <v>89</v>
@@ -2374,7 +2394,7 @@
         <v>63</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2438,7 +2458,7 @@
         <v>63</v>
       </c>
       <c r="K40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2626,7 +2646,7 @@
         <v>63</v>
       </c>
       <c r="K46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2693,7 +2713,7 @@
         <v>63</v>
       </c>
       <c r="K48" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2887,7 +2907,7 @@
         <v>63</v>
       </c>
       <c r="K55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3445,13 +3465,13 @@
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3477,13 +3497,13 @@
         <v>69</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3775,10 +3795,10 @@
         <v>62</v>
       </c>
       <c r="H86" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>63</v>
@@ -3952,7 +3972,7 @@
         <v>63</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4543,15 +4563,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>173</v>
       </c>
@@ -4574,16 +4594,19 @@
         <v>171</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4595,11 +4618,15 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="e">
+        <f>F2/G2*100</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="7"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -4621,17 +4648,21 @@
       <c r="G3">
         <v>332</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H32" si="0">F3/G3*100</f>
+        <v>9.0361445783132535</v>
+      </c>
+      <c r="I3">
         <v>2019</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>176</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4650,33 +4681,57 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4">
         <v>2019</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4000</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2020</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4686,722 +4741,894 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6">
         <v>2018</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>45</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2019</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="3">
         <v>2019</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="J8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>2019</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I10">
         <v>2019</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="7">
         <v>2019</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>238</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2019</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>275</v>
+      </c>
+      <c r="G14">
+        <v>325</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="I14">
+        <v>2019</v>
+      </c>
+      <c r="J14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>2500</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2500</v>
+      </c>
+      <c r="G15">
+        <v>3750</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2018</v>
+      </c>
+      <c r="J15" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>2019</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>608</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17">
+        <v>210</v>
+      </c>
+      <c r="G17">
+        <v>520</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>40.384615384615387</v>
+      </c>
+      <c r="I17">
+        <v>2019</v>
+      </c>
+      <c r="J17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18">
+        <v>10700</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2018</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>223</v>
+      </c>
+      <c r="G20">
+        <v>576</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>38.715277777777779</v>
+      </c>
+      <c r="I20">
         <v>2019</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="J20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="D12">
+      <c r="L20" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>27</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>158</v>
+      </c>
+      <c r="H22" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22">
+        <v>2019</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>33</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I23">
+        <v>2019</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>160</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2013</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>690</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7971014492753623</v>
+      </c>
+      <c r="I25">
+        <v>2019</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>6.1538461538461542</v>
+      </c>
+      <c r="I27">
+        <v>2019</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>20</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12">
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I28">
         <v>2019</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
+      <c r="J28" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>450</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="I29">
+        <v>2019</v>
+      </c>
+      <c r="J29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>37</v>
-      </c>
-      <c r="F13">
-        <v>275</v>
-      </c>
-      <c r="G13">
-        <v>325</v>
-      </c>
-      <c r="H13">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>120</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="I32">
         <v>2019</v>
       </c>
-      <c r="I13" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="J32" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>2500</v>
-      </c>
-      <c r="G14">
-        <v>3750</v>
-      </c>
-      <c r="H14">
-        <v>2018</v>
-      </c>
-      <c r="I14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>40</v>
-      </c>
-      <c r="G15">
-        <v>80</v>
-      </c>
-      <c r="H15">
-        <v>2019</v>
-      </c>
-      <c r="I15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>608</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>600</v>
-      </c>
-      <c r="F16">
-        <v>210</v>
-      </c>
-      <c r="G16">
-        <v>520</v>
-      </c>
-      <c r="H16">
-        <v>2019</v>
-      </c>
-      <c r="I16" t="s">
-        <v>197</v>
-      </c>
-      <c r="J16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    <row r="34" spans="3:5">
+      <c r="C34">
+        <f>SUM(C2:C32)</f>
+        <v>3520</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:E34" si="1">SUM(D2:D32)</f>
         <v>84</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17">
-        <v>10700</v>
-      </c>
-      <c r="H17">
-        <v>2018</v>
-      </c>
-      <c r="I17" t="s">
-        <v>190</v>
-      </c>
-      <c r="J17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>223</v>
-      </c>
-      <c r="G19">
-        <v>576</v>
-      </c>
-      <c r="H19">
-        <v>2019</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>27</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2019</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>158</v>
-      </c>
-      <c r="H21">
-        <v>2019</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>22</v>
-      </c>
-      <c r="G22">
-        <v>33</v>
-      </c>
-      <c r="H22">
-        <v>2019</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>18</v>
-      </c>
-      <c r="G23">
-        <v>160</v>
-      </c>
-      <c r="H23">
-        <v>2013</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>40</v>
-      </c>
-      <c r="G24">
-        <v>690</v>
-      </c>
-      <c r="H24">
-        <v>2019</v>
-      </c>
-      <c r="I24" t="s">
-        <v>189</v>
-      </c>
-      <c r="J24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>40</v>
-      </c>
-      <c r="G26">
-        <v>650</v>
-      </c>
-      <c r="H26">
-        <v>2019</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <v>50</v>
-      </c>
-      <c r="H27">
-        <v>2019</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28">
-        <v>450</v>
-      </c>
-      <c r="G28">
-        <v>650</v>
-      </c>
-      <c r="H28">
-        <v>2019</v>
-      </c>
-      <c r="I28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>20</v>
-      </c>
-      <c r="G31">
-        <v>120</v>
-      </c>
-      <c r="H31">
-        <v>2019</v>
-      </c>
-      <c r="I31" t="s">
-        <v>177</v>
-      </c>
-      <c r="J31" t="s">
-        <v>137</v>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="E35">
+        <f>E34/C34</f>
+        <v>0.97073863636363633</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/fad_data/fad_numbers.xlsx
+++ b/raw_data/fad_data/fad_numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretwilson/github/kuni_fads/raw_data/fad_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC90017-6304-E847-A978-B9331A2E60B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B6ED9E6-4F72-5649-B50C-1765AC0F727F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="460" windowWidth="17760" windowHeight="12760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="460" windowWidth="17760" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fads_timeline" sheetId="6" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="223">
   <si>
     <t>Anguilla</t>
   </si>
@@ -631,9 +631,6 @@
     <t>Psihoyos PC 2019</t>
   </si>
   <si>
-    <t>Sadusky 2018</t>
-  </si>
-  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
@@ -730,9 +727,6 @@
     <t>*vessel number from 2016 survey</t>
   </si>
   <si>
-    <t>prop_fad_vessels</t>
-  </si>
-  <si>
     <t>Johnson PC 2020</t>
   </si>
   <si>
@@ -746,6 +740,15 @@
   </si>
   <si>
     <t>BMU</t>
+  </si>
+  <si>
+    <t>perc_private</t>
+  </si>
+  <si>
+    <t>perc_fad_vessels</t>
+  </si>
+  <si>
+    <t>Deleveaux 2020</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -853,6 +856,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1238,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1348,7 +1371,7 @@
         <v>63</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1381,7 +1404,7 @@
         <v>63</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1610,6 +1633,24 @@
       </c>
       <c r="B12" t="s">
         <v>22</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1737,7 +1778,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1759,46 +1800,41 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C18">
-        <v>1968</v>
+        <v>2020</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1806,30 +1842,31 @@
         <v>42</v>
       </c>
       <c r="C19">
-        <v>2001</v>
+        <v>1968</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1837,20 +1874,21 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" t="s">
-        <v>82</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1859,15 +1897,15 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="3">
-        <v>2019</v>
+      <c r="C21">
+        <v>2002</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1875,69 +1913,73 @@
       <c r="E21">
         <v>6</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="3">
         <v>2019</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="K22" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>2001</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2019</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1945,31 +1987,25 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
         <v>63</v>
       </c>
-      <c r="K24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1977,57 +2013,57 @@
         <v>25</v>
       </c>
       <c r="C25">
+        <v>2006</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
         <v>2019</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>194</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26">
-        <v>1968</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -2035,29 +2071,31 @@
         <v>44</v>
       </c>
       <c r="C27">
-        <v>1993</v>
+        <v>1968</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="K27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2065,87 +2103,86 @@
         <v>44</v>
       </c>
       <c r="C28">
+        <v>1993</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
         <v>2002</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
       </c>
       <c r="G29" t="s">
         <v>62</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
         <v>182</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30">
-        <v>1986</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2153,31 +2190,30 @@
         <v>26</v>
       </c>
       <c r="C31">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" t="s">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2185,7 +2221,7 @@
         <v>26</v>
       </c>
       <c r="C32">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2199,10 +2235,10 @@
       <c r="H32" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="I32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K32" t="s">
@@ -2217,25 +2253,28 @@
         <v>26</v>
       </c>
       <c r="C33">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2246,31 +2285,25 @@
         <v>26</v>
       </c>
       <c r="C34">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" t="s">
-        <v>156</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>145</v>
+        <v>69</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2281,85 +2314,87 @@
         <v>26</v>
       </c>
       <c r="C35">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s">
+        <v>156</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K35" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D36">
-        <v>2500</v>
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>2500</v>
-      </c>
-      <c r="G36" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>1989</v>
+        <v>2018</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>204</v>
+        <v>2500</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2370,23 +2405,21 @@
         <v>28</v>
       </c>
       <c r="C38">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" t="s">
-        <v>214</v>
-      </c>
+      <c r="G38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="1"/>
       <c r="I38" t="s">
         <v>89</v>
       </c>
@@ -2405,13 +2438,13 @@
         <v>28</v>
       </c>
       <c r="C39">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2420,13 +2453,16 @@
         <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="I39" t="s">
         <v>89</v>
       </c>
       <c r="J39" t="s">
         <v>63</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2437,28 +2473,28 @@
         <v>28</v>
       </c>
       <c r="C40">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="H40" t="s">
+        <v>67</v>
       </c>
       <c r="I40" t="s">
         <v>89</v>
       </c>
       <c r="J40" t="s">
         <v>63</v>
-      </c>
-      <c r="K40" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2469,25 +2505,28 @@
         <v>28</v>
       </c>
       <c r="C41">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s">
         <v>63</v>
+      </c>
+      <c r="K41" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2498,31 +2537,25 @@
         <v>28</v>
       </c>
       <c r="C42">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>7</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I42" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="J42" t="s">
         <v>63</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2533,58 +2566,63 @@
         <v>28</v>
       </c>
       <c r="C43">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
         <v>62</v>
       </c>
       <c r="H43" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I43" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K43" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>1987</v>
+        <v>2019</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>93</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -2596,26 +2634,27 @@
         <v>29</v>
       </c>
       <c r="C45">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s">
         <v>63</v>
       </c>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
@@ -2625,28 +2664,25 @@
         <v>29</v>
       </c>
       <c r="C46">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
         <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="J46" t="s">
         <v>63</v>
-      </c>
-      <c r="K46" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2657,16 +2693,16 @@
         <v>29</v>
       </c>
       <c r="C47">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D47">
-        <v>30</v>
-      </c>
-      <c r="F47">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H47" t="s">
         <v>113</v>
@@ -2678,7 +2714,7 @@
         <v>63</v>
       </c>
       <c r="K47" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2689,22 +2725,19 @@
         <v>29</v>
       </c>
       <c r="C48">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D48">
-        <v>58</v>
-      </c>
-      <c r="E48">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F48">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I48" t="s">
         <v>79</v>
@@ -2713,7 +2746,7 @@
         <v>63</v>
       </c>
       <c r="K48" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2724,28 +2757,31 @@
         <v>29</v>
       </c>
       <c r="C49">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="D49">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="H49" t="s">
+        <v>118</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s">
         <v>63</v>
       </c>
       <c r="K49" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2756,22 +2792,28 @@
         <v>29</v>
       </c>
       <c r="C50">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="D50">
-        <v>500</v>
+        <v>200</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>200</v>
       </c>
       <c r="G50" t="s">
         <v>69</v>
       </c>
       <c r="I50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J50" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="K50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2782,60 +2824,54 @@
         <v>29</v>
       </c>
       <c r="C51">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D51">
-        <v>608</v>
-      </c>
-      <c r="E51">
-        <v>8</v>
-      </c>
-      <c r="F51">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G51" t="s">
         <v>69</v>
       </c>
       <c r="I51" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="J51" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="K51" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>608</v>
       </c>
       <c r="E52">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>600</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="I52" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="J52" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2846,68 +2882,68 @@
         <v>30</v>
       </c>
       <c r="C53">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E53">
-        <v>14</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
         <v>62</v>
       </c>
+      <c r="H53" t="s">
+        <v>154</v>
+      </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="J53" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K53" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>2018</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" t="s">
+        <v>133</v>
+      </c>
+      <c r="K54" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55">
-        <v>1981</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" t="s">
-        <v>74</v>
-      </c>
-      <c r="J55" t="s">
-        <v>63</v>
-      </c>
-      <c r="K55" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2918,25 +2954,28 @@
         <v>32</v>
       </c>
       <c r="C56">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s">
         <v>63</v>
+      </c>
+      <c r="K56" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2947,7 +2986,7 @@
         <v>32</v>
       </c>
       <c r="C57">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2959,7 +2998,7 @@
         <v>62</v>
       </c>
       <c r="H57" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="I57" t="s">
         <v>107</v>
@@ -2976,19 +3015,19 @@
         <v>32</v>
       </c>
       <c r="C58">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
       </c>
       <c r="H58" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="I58" t="s">
         <v>107</v>
@@ -3005,19 +3044,19 @@
         <v>32</v>
       </c>
       <c r="C59">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
         <v>62</v>
       </c>
       <c r="H59" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="I59" t="s">
         <v>107</v>
@@ -3034,10 +3073,16 @@
         <v>32</v>
       </c>
       <c r="C60">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>62</v>
       </c>
       <c r="H60" t="s">
         <v>108</v>
@@ -3057,17 +3102,11 @@
         <v>32</v>
       </c>
       <c r="C61">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D61">
         <v>22</v>
       </c>
-      <c r="E61">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>62</v>
-      </c>
       <c r="H61" t="s">
         <v>108</v>
       </c>
@@ -3076,9 +3115,6 @@
       </c>
       <c r="J61" t="s">
         <v>63</v>
-      </c>
-      <c r="K61" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3089,25 +3125,28 @@
         <v>32</v>
       </c>
       <c r="C62">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D62">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E62">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
         <v>62</v>
       </c>
       <c r="H62" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I62" t="s">
         <v>107</v>
       </c>
       <c r="J62" t="s">
         <v>63</v>
+      </c>
+      <c r="K62" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3118,13 +3157,13 @@
         <v>32</v>
       </c>
       <c r="C63">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
         <v>62</v>
@@ -3137,9 +3176,6 @@
       </c>
       <c r="J63" t="s">
         <v>63</v>
-      </c>
-      <c r="K63" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3150,13 +3186,19 @@
         <v>32</v>
       </c>
       <c r="C64">
-        <v>2001</v>
-      </c>
-      <c r="E64" t="s">
-        <v>84</v>
-      </c>
-      <c r="F64" t="s">
-        <v>84</v>
+        <v>2000</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" t="s">
+        <v>67</v>
       </c>
       <c r="I64" t="s">
         <v>107</v>
@@ -3165,7 +3207,7 @@
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3176,19 +3218,22 @@
         <v>32</v>
       </c>
       <c r="C65">
-        <v>2011</v>
-      </c>
-      <c r="D65">
-        <v>50</v>
+        <v>2001</v>
+      </c>
+      <c r="E65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" t="s">
+        <v>84</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="J65" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="K65" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3199,19 +3244,19 @@
         <v>32</v>
       </c>
       <c r="C66">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J66" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3222,47 +3267,48 @@
         <v>32</v>
       </c>
       <c r="C67">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D67">
-        <v>30</v>
-      </c>
-      <c r="E67">
-        <v>10</v>
-      </c>
-      <c r="F67">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="J67" t="s">
-        <v>137</v>
+        <v>63</v>
+      </c>
+      <c r="K67" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="H68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>185</v>
+        <v>32</v>
+      </c>
+      <c r="C68">
+        <v>2019</v>
+      </c>
+      <c r="D68">
+        <v>30</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" t="s">
+        <v>169</v>
+      </c>
+      <c r="J68" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3272,55 +3318,46 @@
       <c r="B69" t="s">
         <v>33</v>
       </c>
-      <c r="C69">
-        <v>2019</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <v>3</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
-        <v>191</v>
-      </c>
-      <c r="J69" t="s">
-        <v>137</v>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70">
-        <v>1980</v>
+        <v>2019</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K70" s="1"/>
+      <c r="I70" t="s">
+        <v>190</v>
+      </c>
+      <c r="J70" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
@@ -3330,26 +3367,28 @@
         <v>34</v>
       </c>
       <c r="C71">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
@@ -3359,27 +3398,26 @@
         <v>34</v>
       </c>
       <c r="C72">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="D72">
-        <v>6</v>
-      </c>
-      <c r="E72">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K72" s="1"/>
+      <c r="K72" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
@@ -3389,25 +3427,25 @@
         <v>34</v>
       </c>
       <c r="C73">
-        <v>2018</v>
+        <v>1986</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>8</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>121</v>
+      <c r="H73" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="K73" s="1"/>
     </row>
@@ -3419,13 +3457,13 @@
         <v>34</v>
       </c>
       <c r="C74">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3434,45 +3472,42 @@
         <v>62</v>
       </c>
       <c r="I74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>2019</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75">
-        <v>1989</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
@@ -3482,28 +3517,29 @@
         <v>42</v>
       </c>
       <c r="C76">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" s="1"/>
       <c r="I76" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3514,25 +3550,28 @@
         <v>42</v>
       </c>
       <c r="C77">
-        <v>2018</v>
+        <v>1995</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I77" t="s">
-        <v>134</v>
-      </c>
-      <c r="J77" t="s">
-        <v>133</v>
+      <c r="I77" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3543,48 +3582,48 @@
         <v>42</v>
       </c>
       <c r="C78">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>12</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>137</v>
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>69</v>
+      </c>
+      <c r="I78" t="s">
+        <v>134</v>
+      </c>
+      <c r="J78" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C79">
         <v>2019</v>
       </c>
       <c r="D79">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>100</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>137</v>
@@ -3592,29 +3631,31 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C80">
-        <v>1984</v>
+        <v>2019</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="I80" s="3" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3624,26 +3665,24 @@
       <c r="B81" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="1">
-        <v>1985</v>
-      </c>
-      <c r="D81" s="1">
-        <v>20</v>
+      <c r="C81">
+        <v>1984</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>20</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>146</v>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="I81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3654,29 +3693,25 @@
         <v>35</v>
       </c>
       <c r="C82" s="1">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="D82" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s">
-        <v>69</v>
-      </c>
-      <c r="H82" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I82" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>90</v>
+      <c r="K82" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3687,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="C83" s="1">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
@@ -3703,80 +3738,82 @@
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:11">
+      <c r="A85" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C85" s="3">
         <v>2013</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D85" s="3">
         <v>19</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>8</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>62</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K84" s="4" t="s">
+      <c r="J85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="3">
-        <v>1995</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
-        <v>84</v>
-      </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K85" s="4"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
@@ -3785,27 +3822,29 @@
       <c r="B86" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="1">
-        <v>1997</v>
-      </c>
-      <c r="D86">
-        <v>12</v>
+      <c r="C86" s="3">
+        <v>1995</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" t="s">
-        <v>207</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K86" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K86" s="4"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
@@ -3815,28 +3854,25 @@
         <v>36</v>
       </c>
       <c r="C87" s="1">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
         <v>62</v>
       </c>
       <c r="H87" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>96</v>
+      <c r="K87" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3846,29 +3882,29 @@
       <c r="B88" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="3">
-        <v>2010</v>
+      <c r="C88" s="1">
+        <v>2001</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
         <v>62</v>
       </c>
       <c r="H88" t="s">
-        <v>151</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>142</v>
+        <v>94</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K88" s="3" t="s">
-        <v>150</v>
+      <c r="K88" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3879,7 +3915,7 @@
         <v>36</v>
       </c>
       <c r="C89" s="3">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D89">
         <v>10</v>
@@ -3911,69 +3947,68 @@
         <v>36</v>
       </c>
       <c r="C90" s="3">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E90">
-        <v>7</v>
-      </c>
-      <c r="F90">
-        <v>9</v>
-      </c>
-      <c r="I90" t="s">
-        <v>189</v>
-      </c>
-      <c r="J90" t="s">
-        <v>137</v>
-      </c>
-      <c r="K90" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" t="s">
+        <v>151</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C91" s="3">
         <v>2019</v>
       </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>7</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>188</v>
+      </c>
+      <c r="J91" t="s">
+        <v>137</v>
+      </c>
       <c r="K91" s="3"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92">
-        <v>1989</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H92" s="1"/>
-      <c r="I92" t="s">
-        <v>100</v>
-      </c>
-      <c r="J92" t="s">
-        <v>63</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2019</v>
+      </c>
+      <c r="K92" s="3"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
@@ -3983,28 +4018,29 @@
         <v>37</v>
       </c>
       <c r="C93">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="G93" t="s">
-        <v>62</v>
-      </c>
-      <c r="H93" t="s">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" s="1"/>
       <c r="I93" t="s">
         <v>100</v>
       </c>
       <c r="J93" t="s">
         <v>63</v>
       </c>
-      <c r="K93" t="s">
-        <v>141</v>
+      <c r="K93" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4015,25 +4051,28 @@
         <v>37</v>
       </c>
       <c r="C94">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
         <v>62</v>
       </c>
       <c r="H94" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I94" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J94" t="s">
         <v>63</v>
+      </c>
+      <c r="K94" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4044,13 +4083,22 @@
         <v>37</v>
       </c>
       <c r="C95">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" t="s">
+        <v>99</v>
       </c>
       <c r="I95" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="J95" t="s">
         <v>63</v>
@@ -4064,13 +4112,10 @@
         <v>37</v>
       </c>
       <c r="C96">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D96">
         <v>2</v>
-      </c>
-      <c r="H96" t="s">
-        <v>108</v>
       </c>
       <c r="I96" t="s">
         <v>142</v>
@@ -4087,45 +4132,45 @@
         <v>37</v>
       </c>
       <c r="C97">
+        <v>2012</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>108</v>
+      </c>
+      <c r="I97" t="s">
+        <v>142</v>
+      </c>
+      <c r="J97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98">
         <v>2019</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>8</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>8</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J97" s="1" t="s">
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" t="s">
-        <v>42</v>
-      </c>
-      <c r="C98">
-        <v>2017</v>
-      </c>
-      <c r="D98">
-        <v>4</v>
-      </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4136,13 +4181,13 @@
         <v>42</v>
       </c>
       <c r="C99">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>135</v>
@@ -4159,131 +4204,128 @@
         <v>42</v>
       </c>
       <c r="C100">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>2</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" t="s">
-        <v>161</v>
+      <c r="A101" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C101">
         <v>2019</v>
       </c>
       <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
         <v>2</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
       <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102">
+        <v>2019</v>
+      </c>
+      <c r="D102">
         <v>2</v>
       </c>
-      <c r="G101" t="s">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
         <v>69</v>
       </c>
-      <c r="I101" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J101" s="1" t="s">
+      <c r="I102" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B102" t="s">
-        <v>38</v>
-      </c>
-      <c r="C102">
-        <v>1998</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H102" s="1"/>
-      <c r="I102" t="s">
-        <v>101</v>
-      </c>
-      <c r="J102" t="s">
-        <v>63</v>
-      </c>
-      <c r="K102" s="1"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B103" t="s">
         <v>38</v>
       </c>
       <c r="C103">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>3</v>
-      </c>
-      <c r="G103" t="s">
-        <v>62</v>
-      </c>
-      <c r="H103" t="s">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" s="1"/>
       <c r="I103" t="s">
         <v>101</v>
       </c>
       <c r="J103" t="s">
         <v>63</v>
       </c>
+      <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B104" t="s">
         <v>38</v>
       </c>
       <c r="C104">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>62</v>
+      </c>
+      <c r="H104" t="s">
+        <v>102</v>
       </c>
       <c r="I104" t="s">
         <v>101</v>
@@ -4294,28 +4336,25 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B105" t="s">
         <v>38</v>
       </c>
       <c r="C105">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>62</v>
-      </c>
-      <c r="H105" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J105" t="s">
         <v>63</v>
@@ -4323,19 +4362,19 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B106" t="s">
         <v>38</v>
       </c>
       <c r="C106">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
         <v>62</v>
@@ -4349,85 +4388,83 @@
       <c r="J106" t="s">
         <v>63</v>
       </c>
-      <c r="K106" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
       </c>
       <c r="C107">
+        <v>2003</v>
+      </c>
+      <c r="D107">
+        <v>11</v>
+      </c>
+      <c r="E107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>62</v>
+      </c>
+      <c r="H107" t="s">
+        <v>102</v>
+      </c>
+      <c r="I107" t="s">
+        <v>103</v>
+      </c>
+      <c r="J107" t="s">
+        <v>63</v>
+      </c>
+      <c r="K107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108">
         <v>2019</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>100</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
         <v>100</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G108" t="s">
         <v>69</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I108" t="s">
         <v>140</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J108" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
-      </c>
-      <c r="C110">
-        <v>1979</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K110" s="1"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
@@ -4437,29 +4474,28 @@
         <v>40</v>
       </c>
       <c r="C111">
-        <v>1981</v>
-      </c>
-      <c r="D111" s="1">
-        <v>50</v>
-      </c>
-      <c r="E111" s="1">
-        <v>50</v>
-      </c>
-      <c r="F111" s="1">
+        <v>1979</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
         <v>0</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
@@ -4469,13 +4505,13 @@
         <v>40</v>
       </c>
       <c r="C112">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D112" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E112" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -4501,15 +4537,15 @@
         <v>40</v>
       </c>
       <c r="C113">
-        <v>2018</v>
+        <v>1983</v>
       </c>
       <c r="D113" s="1">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E113" s="1">
-        <v>4</v>
-      </c>
-      <c r="F113" s="3">
+        <v>60</v>
+      </c>
+      <c r="F113" s="1">
         <v>0</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -4519,7 +4555,7 @@
         <v>67</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>63</v>
@@ -4533,27 +4569,59 @@
         <v>40</v>
       </c>
       <c r="C114">
+        <v>2018</v>
+      </c>
+      <c r="D114" s="1">
+        <v>4</v>
+      </c>
+      <c r="E114" s="1">
+        <v>4</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115">
         <v>2019</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D115" s="3">
         <v>4</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E115" s="3">
         <v>4</v>
       </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
         <v>177</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K114">
-    <sortCondition ref="A2:A114"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K115">
+    <sortCondition ref="A2:A115"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -4563,15 +4631,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="6" max="6" width="10.83203125" style="13"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>173</v>
       </c>
@@ -4587,1048 +4658,1192 @@
       <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="e">
-        <f>F2/G2*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16" t="str">
+        <f t="shared" ref="F2:F3" si="0">IF(OR(E2="",C2=0,E2="NA"),"NA",E2/C2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15" t="str">
+        <f t="shared" ref="I2:I3" si="1">IF(OR(G2="",G2="NA"),"NA",IF(G2=0,0,G2/H2))</f>
+        <v>NA</v>
+      </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" s="7"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="17">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="17">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="17">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="16">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G3" s="17">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="17">
         <v>332</v>
       </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H32" si="0">F3/G3*100</f>
-        <v>9.0361445783132535</v>
-      </c>
-      <c r="I3">
+      <c r="I3" s="15">
+        <f t="shared" si="1"/>
+        <v>9.036144578313253E-2</v>
+      </c>
+      <c r="J3">
         <v>2019</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>176</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4">
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16" t="str">
+        <f>IF(OR(E4="",C4=0,E4="NA"),"NA",E4/C4)</f>
+        <v>NA</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15">
+        <f>IF(OR(G4="",G4="NA"),"NA",IF(G4=0,0,G4/H4))</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>2019</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16" t="str">
+        <f t="shared" ref="F5:F32" si="2">IF(OR(E5="",C5=0,E5="NA"),"NA",E5/C5)</f>
+        <v>NA</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
         <v>4000</v>
       </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="I5" s="15">
+        <f t="shared" ref="I5:I32" si="3">IF(OR(G5="",G5="NA"),"NA",IF(G5=0,0,G5/H5))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>2020</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="K5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6">
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>2018</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7">
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>2020</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="J8" s="3">
         <v>2019</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="17">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="17">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="17">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="17">
         <v>20</v>
       </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I9">
+      <c r="I9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J9">
         <v>2019</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="17">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
         <v>18</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="17">
         <v>10</v>
       </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I10">
+      <c r="I10" s="15">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="J10">
         <v>2019</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11" s="14">
         <v>3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
         <v>15</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="I11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="7">
         <v>2019</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="K11" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
         <v>2019</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="K12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="17">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="17">
         <v>20</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="19">
         <v>238</v>
       </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="I13" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="J13">
         <v>2019</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="K13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="17">
         <v>40</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="17">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="17">
         <v>37</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="16">
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G14" s="17">
         <v>275</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="17">
         <v>325</v>
       </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>84.615384615384613</v>
-      </c>
-      <c r="I14">
+      <c r="I14" s="15">
+        <f t="shared" si="3"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="J14">
         <v>2019</v>
       </c>
-      <c r="J14" t="s">
-        <v>197</v>
-      </c>
       <c r="K14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="17">
         <v>2500</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>2500</v>
-      </c>
-      <c r="G15">
+      <c r="D15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17">
         <v>3750</v>
       </c>
-      <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="I15" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="J15">
         <v>2018</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>181</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="17">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="17">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="17">
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="16">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="G16" s="17">
         <v>40</v>
       </c>
-      <c r="G16">
+      <c r="H16" s="17">
         <v>80</v>
       </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I16">
+      <c r="I16" s="15">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J16">
         <v>2019</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>166</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="17">
         <v>608</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="17">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="17">
         <v>600</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="16">
+        <f t="shared" si="2"/>
+        <v>0.98684210526315785</v>
+      </c>
+      <c r="G17" s="17">
         <v>210</v>
       </c>
-      <c r="G17">
+      <c r="H17" s="17">
         <v>520</v>
       </c>
-      <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>40.384615384615387</v>
-      </c>
-      <c r="I17">
+      <c r="I17" s="15">
+        <f t="shared" si="3"/>
+        <v>0.40384615384615385</v>
+      </c>
+      <c r="J17">
         <v>2019</v>
       </c>
-      <c r="J17" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="17">
         <v>18</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17">
         <v>10700</v>
       </c>
-      <c r="H18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="I18" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="J18">
         <v>2018</v>
       </c>
-      <c r="J18" t="s">
-        <v>190</v>
-      </c>
       <c r="K18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>189</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="17">
         <v>30</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="17">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="17">
         <v>20</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="16">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G20" s="17">
         <v>223</v>
       </c>
-      <c r="G20">
+      <c r="H20" s="17">
         <v>576</v>
       </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>38.715277777777779</v>
-      </c>
-      <c r="I20">
+      <c r="I20" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38715277777777779</v>
+      </c>
+      <c r="J20">
         <v>2019</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
         <v>137</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="17">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="17">
         <v>3</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="17">
         <v>27</v>
       </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="I21" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="J21" s="7">
         <v>2019</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="K21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="17">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
         <v>158</v>
       </c>
-      <c r="H22" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22">
         <v>2019</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="K22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="17">
         <v>100</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
         <v>100</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
         <v>22</v>
       </c>
-      <c r="G23">
+      <c r="H23" s="17">
         <v>33</v>
       </c>
-      <c r="H23" s="7">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="I23">
+      <c r="I23" s="15">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J23">
         <v>2019</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="17">
         <v>22</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="17">
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="17">
         <v>18</v>
       </c>
-      <c r="G24">
+      <c r="F24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="17">
         <v>160</v>
       </c>
-      <c r="H24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="I24" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="J24">
         <v>2013</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="K24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="17">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="17">
         <v>7</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
         <v>40</v>
       </c>
-      <c r="G25">
+      <c r="H25" s="17">
         <v>690</v>
       </c>
-      <c r="H25" s="7">
-        <f t="shared" si="0"/>
-        <v>5.7971014492753623</v>
-      </c>
-      <c r="I25">
+      <c r="I25" s="15">
+        <f t="shared" si="3"/>
+        <v>5.7971014492753624E-2</v>
+      </c>
+      <c r="J25">
         <v>2019</v>
       </c>
-      <c r="J25" t="s">
-        <v>189</v>
-      </c>
       <c r="K25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>160</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="17">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="17">
         <v>8</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
         <v>40</v>
       </c>
-      <c r="G27">
+      <c r="H27" s="17">
         <v>650</v>
       </c>
-      <c r="H27" s="7">
-        <f t="shared" si="0"/>
-        <v>6.1538461538461542</v>
-      </c>
-      <c r="I27">
+      <c r="I27" s="15">
+        <f t="shared" si="3"/>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="J27">
         <v>2019</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="K27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>161</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="17">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="17">
         <v>20</v>
       </c>
-      <c r="G28">
+      <c r="H28" s="17">
         <v>50</v>
       </c>
-      <c r="H28" s="7">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="I28">
+      <c r="I28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="J28">
         <v>2019</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="17">
         <v>100</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
         <v>100</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="17">
         <v>450</v>
       </c>
-      <c r="G29">
+      <c r="H29" s="17">
         <v>650</v>
       </c>
-      <c r="H29" s="7">
-        <f t="shared" si="0"/>
-        <v>69.230769230769226</v>
-      </c>
-      <c r="I29">
+      <c r="I29" s="15">
+        <f t="shared" si="3"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="J29">
         <v>2019</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>140</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>163</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="17">
         <v>4</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="17">
         <v>4</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
         <v>20</v>
       </c>
-      <c r="G32">
+      <c r="H32" s="17">
         <v>120</v>
       </c>
-      <c r="H32" s="7">
-        <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="I32">
+      <c r="I32" s="15">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J32">
         <v>2019</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>177</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34">
         <f>SUM(C2:C32)</f>
-        <v>3520</v>
+        <v>3523</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:E34" si="1">SUM(D2:D32)</f>
+        <f t="shared" ref="D34:E34" si="4">SUM(D2:D32)</f>
         <v>84</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
-        <v>3417</v>
+        <f t="shared" si="4"/>
+        <v>917</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="E35">
         <f>E34/C34</f>
-        <v>0.97073863636363633</v>
+        <v>0.2602895259721828</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/fad_data/fad_numbers.xlsx
+++ b/raw_data/fad_data/fad_numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretwilson/github/kuni_fads/raw_data/fad_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/kuni_fads/raw_data/fad_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B6ED9E6-4F72-5649-B50C-1765AC0F727F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBBC6C6-B500-3942-8F68-15D46E226D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="460" windowWidth="17760" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17760" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fads_timeline" sheetId="6" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="224">
   <si>
     <t>Anguilla</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>Deleveaux 2020</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
   </si>
 </sst>
 </file>
@@ -4634,7 +4637,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5453,12 +5456,12 @@
       <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="E22" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="16" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G22" s="17">
         <v>158</v>
@@ -5799,12 +5802,12 @@
       <c r="D32" s="17">
         <v>4</v>
       </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
+      <c r="E32" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="16" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G32" s="17">
         <v>20</v>
